--- a/data/trans_dic/iP30A7_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A7_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>88,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>88,25%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,66; 90,96</t>
+          <t>83,91; 92,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,94; 92,89</t>
+          <t>83,05; 91,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,52; 91,11</t>
+          <t>84,93; 90,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,49%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,91; 92,0</t>
+          <t>82,66; 90,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,05; 91,81</t>
+          <t>81,94; 92,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,93; 90,97</t>
+          <t>84,52; 91,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A7_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A7_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>88,07%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>81,91; 91,99</t>
+          <t>74,86; 90,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,07; 95,91</t>
+          <t>84,25; 96,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,43; 93,07</t>
+          <t>82,67; 92,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>90,06%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,91; 92,0</t>
+          <t>84,98; 92,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,05; 91,81</t>
+          <t>86,36; 94,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,93; 90,97</t>
+          <t>86,74; 92,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,49%</t>
+          <t>89,47%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,66; 90,96</t>
+          <t>85,29; 93,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,94; 92,89</t>
+          <t>83,22; 92,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,52; 91,11</t>
+          <t>86,04; 92,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>86,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>87,28%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,82; 90,11</t>
+          <t>79,07; 90,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,98; 91,87</t>
+          <t>77,94; 93,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 90,49</t>
+          <t>81,73; 90,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>87,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89,55%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85,07; 90,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85,16; 91,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>86,25; 90,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
